--- a/宏观经济/eta/美元指数拟合残差-10年期美国国债收益率_月度数据.xlsx
+++ b/宏观经济/eta/美元指数拟合残差-10年期美国国债收益率_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-5.042</v>
+        <v>-1.6098</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.2578</v>
+        <v>-5.2367</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.9491</v>
+        <v>-2.2803</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-6.4511</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.6482</v>
+        <v>-2.6555</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-6.5024</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.7597</v>
+        <v>-2.7659</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>-7.2756</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.7875</v>
+        <v>-2.7906</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-6.812</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.545</v>
+        <v>-2.5474</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>-5.3351</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.7419</v>
+        <v>-2.7462</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-4.1055</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.3332</v>
+        <v>-2.3399</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-0.6469</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.3638</v>
+        <v>-1.3707</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>1.8353</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7412</v>
+        <v>-0.7468</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>2.3962</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2402</v>
+        <v>-0.243</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>1.9692</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>0.8388</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2442</v>
+        <v>-0.2475</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>-0.7402</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6957</v>
+        <v>-0.7000999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>-1.4534</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.0619</v>
+        <v>-1.0698</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>-0.911</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8861</v>
+        <v>-0.893</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-0.0481</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5816</v>
+        <v>-0.5856</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>0.3289</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.3777</v>
+        <v>-1.3812</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>-0.6477000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9928</v>
+        <v>-0.996</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>-0.4129</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1788</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>-0.782</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1362</v>
+        <v>-0.1369</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>-0.3977</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7896</v>
+        <v>-0.7907999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>-0.9401</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9305</v>
+        <v>-0.9343</v>
       </c>
     </row>
     <row r="25">
